--- a/pred_ohlcv/54_21/2020-01-26 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XRP ohlcv.xlsx
@@ -3824,7 +3824,7 @@
         <v>-398962.54484377</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-402536.23344377</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-422298.4986437701</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-250365.2129437701</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-245885.2129437701</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-248150.6897437701</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-143459.4665437701</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-141775.9648437701</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-141796.8652437701</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-147644.8661437701</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-156812.0438437701</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-117883.0108437701</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-117753.6499437701</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-79189.49224377013</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-80561.48514377013</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-77984.56754377013</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-210958.9304437701</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-209617.9304437701</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-209617.9304437701</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-209934.7904437701</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-209475.9882437701</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-209730.8173437701</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-229397.2265437701</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-241654.3346437701</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-784152.3687437702</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-75492.32098688019</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-127786.6516868802</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1506109.79572322</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1507407.11052322</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1500571.137662051</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1513640.045270061</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1520060.202036101</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1517405.700054051</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1484431.962354051</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1331225.142454051</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-1618801.24903895</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-1618801.24903895</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-1721594.08769888</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1821407.24276163</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1821407.24276163</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1776680.296351</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1776680.296351</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1857834.62100012</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1857834.62100012</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1671550.38404188</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-1693833.57683621</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1689552.506336211</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1711854.077036211</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1710485.496536211</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1710485.496536211</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1700215.975022101</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1653439.396022101</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1653439.396022101</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1660213.963922101</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1660156.964822101</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1660156.964822101</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1664704.377622101</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1664704.377622101</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1749739.784422101</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1749729.089923471</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1750125.502723471</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1750462.841923471</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-1788353.536853831</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1644696.990072171</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1644196.990072171</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1564916.224072171</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1565116.224072171</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1576444.026572171</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1576444.026572171</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1546763.902155381</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1546763.902155381</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1552216.022455381</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-1215509.212239141</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-806861.6000892211</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-806861.6000892211</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-790019.7198892211</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-750940.7281892211</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-750940.7281892211</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-831460.5385892211</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-879785.1844892211</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-851470.0938892211</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-767337.2588892211</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-777028.7138892211</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-777028.7138892211</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-783858.9379892211</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-773895.407789221</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-775635.437489221</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-775635.437489221</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-758799.260589221</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-758749.260589221</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-758749.260589221</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-756893.700689221</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-802596.3780892211</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-857902.4771892211</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-854852.6711892211</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-874062.7833892211</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-891461.620789221</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-901613.257789221</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-872059.574189221</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-872669.693289221</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-874669.693289221</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-873678.9651892211</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-873678.9651892211</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-819291.6386892211</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-796528.2161892211</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-799271.0484892211</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-726811.558439931</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-785349.955439931</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-785992.949839931</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-709056.5803903511</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-767651.8441903511</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-767651.8441903511</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-858897.8953903511</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-866295.1259903511</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XRP ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-466810.6613243899</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-567289.9975243898</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-547882.5314032797</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-548041.7589032798</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-366547.8349642701</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-370124.0843642702</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-370640.2557642701</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-387756.6471959801</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-392574.5840959801</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-398962.54484377</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-402536.23344377</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-422298.4986437701</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-250365.2129437701</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-245885.2129437701</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-248150.6897437701</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-143459.4665437701</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-141775.9648437701</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-141796.8652437701</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-147644.8661437701</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-156963.9738437701</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-156913.9738437701</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-156813.9738437701</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-156812.0438437701</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-117883.0108437701</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-117753.6499437701</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-19646.22304377014</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-79189.49224377013</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-75036.21444377014</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-80549.36424377013</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-80561.48514377013</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-77984.56754377013</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-83972.32954377013</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-130698.2034437701</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-205356.6283437701</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-210958.9304437701</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-209617.9304437701</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-209753.7904437701</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-209934.7904437701</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-209475.9882437701</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-209730.8173437701</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-381916.6107868802</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-386914.7257868802</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-18943.0961868802</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-62181.8533868802</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-75492.32098688019</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-113527.5539868802</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-113465.6509868802</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-113465.6509868802</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-127786.6516868802</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-168819.6261868802</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1506109.79572322</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1507407.11052322</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1489685.95336205</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1500571.137662051</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1513640.045270061</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1493794.367436101</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1520060.202036101</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1520048.424436101</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1517405.700054051</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1523220.050754051</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1484431.962354051</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1331225.142454051</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-1618801.24903895</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-1618801.24903895</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1821407.24276163</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-1827492.23444188</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-1830844.33494188</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1830844.33494188</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-1830835.75044188</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-1830835.75044188</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-1830835.75044188</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1830835.75044188</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1836795.75044188</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1836675.75044188</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1836673.75344188</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1836673.75344188</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1836673.75344188</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1846301.13074188</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1671550.38404188</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1667182.33734188</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-1667182.33734188</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1667592.49743542</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-1693833.57683621</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1689552.506336211</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1711854.077036211</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1710485.496536211</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1710485.496536211</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-1718937.459236211</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1700215.975022101</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1653439.396022101</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1653439.396022101</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1660213.963922101</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1660156.964822101</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1660156.964822101</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1664704.377622101</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1664704.377622101</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1749739.784422101</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1749729.089923471</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1750125.502723471</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1750462.841923471</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1739760.505353831</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-1788353.536853831</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1644696.990072171</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1644196.990072171</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1564916.224072171</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1565116.224072171</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1576444.026572171</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1576444.026572171</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1546763.902155381</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1546763.902155381</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1552216.022455381</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-1215509.212239141</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-806861.6000892211</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-806861.6000892211</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-790019.7198892211</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-750940.7281892211</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-750940.7281892211</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-831460.5385892211</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-879785.1844892211</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-851470.0938892211</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-767337.2588892211</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-777028.7138892211</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-777028.7138892211</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-783858.9379892211</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-773895.407789221</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-775635.437489221</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-775635.437489221</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-758799.260589221</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-758749.260589221</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-758749.260589221</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-756893.700689221</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-802596.3780892211</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-857902.4771892211</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-857615.5935892211</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-854852.6711892211</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-874062.7833892211</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-870964.350789221</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-891461.620789221</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-901613.257789221</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-872059.574189221</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-872057.509689221</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-872669.693289221</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-874669.693289221</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-873678.9651892211</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-873678.9651892211</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-819291.6386892211</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-796528.2161892211</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-799271.0484892211</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-726811.558439931</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-785349.955439931</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-785992.949839931</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-709056.5803903511</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-767651.8441903511</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-767651.8441903511</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-858897.8953903511</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-866295.1259903511</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
